--- a/odkx/forms/hh_travel.xlsx
+++ b/odkx/forms/hh_travel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -221,6 +221,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -240,6 +255,24 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -346,7 +379,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -392,13 +425,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.09"/>
   </cols>
   <sheetData>
@@ -510,10 +543,10 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.82"/>
   </cols>
   <sheetData>
@@ -766,15 +799,15 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,16 +877,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,18 +903,33 @@
       <c r="C1" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20210128001</v>
@@ -885,26 +937,74 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_travel.xlsx
+++ b/odkx/forms/hh_travel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="model" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="settings" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.text</t>
+    <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -65,214 +66,367 @@
     <t xml:space="preserve">travel_regularly_trips_district</t>
   </si>
   <si>
+    <t xml:space="preserve">q34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_regularly_trips_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month_first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_sleep_net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divorced_parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visit_spouse_friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Travel History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">34. Is the location of this trip in this district?</t>
   </si>
   <si>
-    <t xml:space="preserve">travel_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_regularly_trips_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. What is the main reason for this participant’s regular travel or sleeping away?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month_first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. In which months does this regular travel take place? (check all that apply)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_sleep_net</t>
+    <t xml:space="preserve">34. A viagem ocorreu dentro do distrito?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34. Je, eneo la safari hii liko katika wilaya hii?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35. What is the main reason for this participant’s regular trip or sleeping away?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35. Qual é o principal motivo da viagem regular deste participante ou da dormida fora?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35. Je, sababu kuu ya mshiriki huyu kufanya safari au kulala mbali mara kwa mara ni ipi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36. In which months does this regular trip take place? (check all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36. Em que meses decorre esta viagem regular? (Assinalar todas as opções que se apliquem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36. Ni katika miezi ipi ambapo safari hii ya kawaida hutendeka? (chagua yote yanayohusika)</t>
   </si>
   <si>
     <t xml:space="preserve">37. Does this participant sleep under a mosquito net during this regular trip?</t>
   </si>
   <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
+    <t xml:space="preserve">37. O participante dorme debaixo de uma rede mosquiteira durante esta viagem regular?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37. Mshiriki huyu hulala ndani ya chandarua cha mbu wakati wa safari hii ya kawaida?</t>
   </si>
   <si>
     <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">january</t>
+    <t xml:space="preserve">Todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yote</t>
   </si>
   <si>
     <t xml:space="preserve">January</t>
   </si>
   <si>
-    <t xml:space="preserve">february</t>
+    <t xml:space="preserve">Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Januari</t>
   </si>
   <si>
     <t xml:space="preserve">February</t>
   </si>
   <si>
-    <t xml:space="preserve">march</t>
+    <t xml:space="preserve">Fevereiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Februari</t>
   </si>
   <si>
     <t xml:space="preserve">March</t>
   </si>
   <si>
-    <t xml:space="preserve">april</t>
+    <t xml:space="preserve">Março</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machi</t>
   </si>
   <si>
     <t xml:space="preserve">April</t>
   </si>
   <si>
-    <t xml:space="preserve">may</t>
+    <t xml:space="preserve">Abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprili</t>
   </si>
   <si>
     <t xml:space="preserve">May</t>
   </si>
   <si>
-    <t xml:space="preserve">june</t>
+    <t xml:space="preserve">Maio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mei</t>
   </si>
   <si>
     <t xml:space="preserve">June</t>
   </si>
   <si>
-    <t xml:space="preserve">Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divorced_parents</t>
+    <t xml:space="preserve">Junho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não sabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sijui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefer not to answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefere não responder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ningependelea kutojibu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyingine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shule</t>
   </si>
   <si>
     <t xml:space="preserve">Divorced parents</t>
   </si>
   <si>
-    <t xml:space="preserve">relatives</t>
+    <t xml:space="preserve">Pais divorciados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wazazi waliotalakiana</t>
   </si>
   <si>
     <t xml:space="preserve">Visiting relatives</t>
   </si>
   <si>
-    <t xml:space="preserve">visit_spouse_friend</t>
+    <t xml:space="preserve">Visitar familiares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutembelea jamaa</t>
   </si>
   <si>
     <t xml:space="preserve">Visiting another spouse or partner or friend</t>
   </si>
   <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member Travel History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Português</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiswahili</t>
+    <t xml:space="preserve">Visitar outro cônjuge ou parceiro ou amigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutembelea mwenza mwingine wa ndoa au mpenzi au rafiki</t>
   </si>
 </sst>
 </file>
@@ -282,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,6 +456,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -347,13 +514,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -379,7 +554,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -422,10 +597,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -540,14 +715,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,80 +737,80 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,10 +818,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,10 +840,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,10 +851,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,10 +862,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,10 +873,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,10 +884,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,10 +895,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,10 +906,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,10 +917,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,10 +928,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,10 +939,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,10 +950,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +978,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -812,7 +987,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -823,10 +998,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,13 +1054,13 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.75"/>
@@ -895,116 +1070,451 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210128001</v>
+        <v>20210204001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>82</v>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_travel.xlsx
+++ b/odkx/forms/hh_travel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,6 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="model" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="settings" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -51,7 +50,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt</t>
+    <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -66,7 +65,7 @@
     <t xml:space="preserve">travel_regularly_trips_district</t>
   </si>
   <si>
-    <t xml:space="preserve">q34</t>
+    <t xml:space="preserve">34. Is the location of this trip in this district?</t>
   </si>
   <si>
     <t xml:space="preserve">travel_reason</t>
@@ -75,7 +74,7 @@
     <t xml:space="preserve">travel_regularly_trips_reason</t>
   </si>
   <si>
-    <t xml:space="preserve">q35</t>
+    <t xml:space="preserve">35. What is the main reason for this participant’s regular travel or sleeping away?</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple</t>
@@ -87,7 +86,7 @@
     <t xml:space="preserve">travel_months</t>
   </si>
   <si>
-    <t xml:space="preserve">q36</t>
+    <t xml:space="preserve">36. In which months does this regular travel take place? (check all that apply)</t>
   </si>
   <si>
     <t xml:space="preserve">yndk</t>
@@ -96,7 +95,7 @@
     <t xml:space="preserve">travel_sleep_net</t>
   </si>
   <si>
-    <t xml:space="preserve">q37</t>
+    <t xml:space="preserve">37. Does this participant sleep under a mosquito net during this regular trip?</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -108,30 +107,51 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title</t>
+    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">january</t>
   </si>
   <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
     <t xml:space="preserve">february</t>
   </si>
   <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
     <t xml:space="preserve">march</t>
   </si>
   <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
     <t xml:space="preserve">april</t>
   </si>
   <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
     <t xml:space="preserve">may</t>
   </si>
   <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
     <t xml:space="preserve">june</t>
   </si>
   <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work</t>
   </si>
   <si>
@@ -141,27 +161,51 @@
     <t xml:space="preserve">divorced_parents</t>
   </si>
   <si>
+    <t xml:space="preserve">Divorced parents</t>
+  </si>
+  <si>
     <t xml:space="preserve">relatives</t>
   </si>
   <si>
+    <t xml:space="preserve">Visiting relatives</t>
+  </si>
+  <si>
     <t xml:space="preserve">visit_spouse_friend</t>
   </si>
   <si>
+    <t xml:space="preserve">Visiting another spouse or partner or friend</t>
+  </si>
+  <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">dk</t>
   </si>
   <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
     <t xml:space="preserve">pna</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefer not to answer</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
@@ -177,9 +221,6 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
     <t xml:space="preserve">display.title.text.pt</t>
   </si>
   <si>
@@ -232,201 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kiswahili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. Is the location of this trip in this district?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. A viagem ocorreu dentro do distrito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. Je, eneo la safari hii liko katika wilaya hii?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. What is the main reason for this participant’s regular trip or sleeping away?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. Qual é o principal motivo da viagem regular deste participante ou da dormida fora?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. Je, sababu kuu ya mshiriki huyu kufanya safari au kulala mbali mara kwa mara ni ipi?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. In which months does this regular trip take place? (check all that apply)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. Em que meses decorre esta viagem regular? (Assinalar todas as opções que se apliquem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. Ni katika miezi ipi ambapo safari hii ya kawaida hutendeka? (chagua yote yanayohusika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. Does this participant sleep under a mosquito net during this regular trip?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. O participante dorme debaixo de uma rede mosquiteira durante esta viagem regular?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. Mshiriki huyu hulala ndani ya chandarua cha mbu wakati wa safari hii ya kawaida?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Januari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fevereiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Februari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Março</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não sabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sijui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefere não responder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ningependelea kutojibu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorced parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pais divorciados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wazazi waliotalakiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visiting relatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visitar familiares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kutembelea jamaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visiting another spouse or partner or friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visitar outro cônjuge ou parceiro ou amigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kutembelea mwenza mwingine wa ndoa au mpenzi au rafiki</t>
   </si>
 </sst>
 </file>
@@ -436,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,19 +302,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia mono"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -514,21 +347,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -554,7 +379,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -597,10 +422,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -715,14 +540,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,80 +562,80 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
+      <c r="B5" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
+      <c r="B6" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
+      <c r="B7" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
+      <c r="B8" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,10 +665,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,10 +676,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,10 +687,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,10 +698,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,10 +709,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,10 +720,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +731,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,10 +742,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,10 +764,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,10 +775,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +803,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -987,7 +812,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -998,10 +823,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,13 +879,13 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.75"/>
@@ -1070,451 +895,116 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210204001</v>
+        <v>20210128001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
